--- a/Problems_Tracking.xlsx
+++ b/Problems_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6afe25b8f4bd1/Desktop/Java/dev-java-dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955577AE-7841-4EA0-A309-765A3E0ABDCC}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B291D30E-942A-4D63-89BE-143664FB7167}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Flow-of-program" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="729">
   <si>
     <t>Input a year and find whether it is a leap year or not.</t>
   </si>
@@ -2236,6 +2236,9 @@
   </si>
   <si>
     <t>Keep the streak on please</t>
+  </si>
+  <si>
+    <t>Not done but simple one so ignoring for now</t>
   </si>
 </sst>
 </file>
@@ -4801,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BCAEED-02C3-4529-AA6E-DCDF0C4A0C44}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="117" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -5247,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADB055A-5698-4A66-904F-AF33CD04EF38}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5267,143 +5270,185 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>69</v>
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>70</v>
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>71</v>
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>72</v>
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>73</v>
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>74</v>
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B18" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B25" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B26" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B27" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B28" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/Problems_Tracking.xlsx
+++ b/Problems_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6afe25b8f4bd1/Desktop/Java/dev-java-dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B291D30E-942A-4D63-89BE-143664FB7167}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89654C4D-8E63-4BB6-9C9C-3FEE2CBB2B54}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Flow-of-program" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="729">
   <si>
     <t>Input a year and find whether it is a leap year or not.</t>
   </si>
@@ -2254,7 +2254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2303,6 +2303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2316,7 +2322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2325,6 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2718,7 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6324E8-01CD-4F88-AF97-BF792A634692}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5252,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADB055A-5698-4A66-904F-AF33CD04EF38}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="112" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -5460,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07152D1-84DE-4127-B09B-EA6B90AE33F8}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="142" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5478,73 +5485,112 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5623,7 +5669,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5678,7 +5724,7 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5706,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D00395-5651-453E-AC0C-3C4EA57E3103}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
+    <sheetView topLeftCell="A14" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5957,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282DE74-76F1-4812-BF01-E632A1397CF8}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A19" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6208,7 +6254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D763D31B-84B1-4370-B90D-146570B1BD01}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G15" zoomScale="115" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>

--- a/Problems_Tracking.xlsx
+++ b/Problems_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6afe25b8f4bd1/Desktop/Java/dev-java-dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89654C4D-8E63-4BB6-9C9C-3FEE2CBB2B54}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E180A0F4-8E0D-4105-A69E-CBC5011B1D5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Flow-of-program" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="730">
   <si>
     <t>Input a year and find whether it is a leap year or not.</t>
   </si>
@@ -2239,6 +2239,9 @@
   </si>
   <si>
     <t>Not done but simple one so ignoring for now</t>
+  </si>
+  <si>
+    <t>Copy paniten sorry</t>
   </si>
 </sst>
 </file>
@@ -5465,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07152D1-84DE-4127-B09B-EA6B90AE33F8}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5594,86 +5597,101 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>126</v>
       </c>

--- a/Problems_Tracking.xlsx
+++ b/Problems_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6afe25b8f4bd1/Desktop/Java/dev-java-dsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E180A0F4-8E0D-4105-A69E-CBC5011B1D5F}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{21BC0D0A-6F38-47BD-863E-247F45840BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057E6DE9-56F8-4FF1-BD88-BDE86A08469D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{C572EB19-D657-424D-ADB9-C099AB151136}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="732">
   <si>
     <t>Input a year and find whether it is a leap year or not.</t>
   </si>
@@ -2242,6 +2242,12 @@
   </si>
   <si>
     <t>Copy paniten sorry</t>
+  </si>
+  <si>
+    <t>Not able to solve</t>
+  </si>
+  <si>
+    <t>Done - referred a YT video</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2312,6 +2318,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2325,7 +2343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2335,6 +2353,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5471,7 +5491,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5632,28 +5652,46 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
